--- a/data/非指增测试数据.xlsx
+++ b/data/非指增测试数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\实习文件\私募基金数据净值交互系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3590\Desktop\自动化项目工程文件\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C60A7-1DD0-4ABA-88B6-2F6F5572EF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320077DC-106E-4813-8D12-19093427843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A792" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
